--- a/THYRISTOR POWER REGULATOR_V2/Project Outputs/BOM/BOM.xlsx
+++ b/THYRISTOR POWER REGULATOR_V2/Project Outputs/BOM/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -36,19 +36,7 @@
     <t>ComponentLink1URL</t>
   </si>
   <si>
-    <t>C1, C2, F1, L, N, OUT1, OUT2, R1, R2, R3, R4, VD3, VT1</t>
-  </si>
-  <si>
-    <t>D-00025</t>
-  </si>
-  <si>
-    <t>VD1, VD2</t>
-  </si>
-  <si>
-    <t>B340B-13-F</t>
-  </si>
-  <si>
-    <t>http://el.udtech.dev/component/1956/detail</t>
+    <t>C1, C2, L, N, OUT1, OUT2, R1, R2, R3, R4, VD1, VD2, VD3, VT1</t>
   </si>
 </sst>
 </file>
@@ -113,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -195,6 +183,15 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -203,39 +200,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -294,23 +258,19 @@
     <xf xxid="32" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
     <xf xxid="33" numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
     <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
     <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
-    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
-    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1"/>
-    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1"/>
-    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1"/>
-    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="49" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
+    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
+    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1"/>
+    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1"/>
+    <xf xxid="46" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="47" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,7 +287,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -343,49 +303,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19">
-        <v>13</v>
-      </c>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="15">
-        <v>2</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>10</v>
-      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18">
+        <v>14</v>
+      </c>
+      <c r="E2" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
